--- a/results/results_16.04.2021.xlsx
+++ b/results/results_16.04.2021.xlsx
@@ -8,26 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03424E88-9E83-4871-B47F-AED39FFE1BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F27C6-36DC-4B6B-B3A1-DB9C79721A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HistoryOnly" sheetId="2" r:id="rId1"/>
     <sheet name="HistoryAndStructural" sheetId="3" r:id="rId2"/>
-    <sheet name="Latex" sheetId="4" r:id="rId3"/>
+    <sheet name="Overlapping" sheetId="5" r:id="rId3"/>
+    <sheet name="Latex" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="45">
   <si>
     <t>ant.jar</t>
   </si>
@@ -130,6 +139,39 @@
   <si>
     <t>org.apache.catalina.startup.ContextConfig$JavaClassCacheEntry</t>
   </si>
+  <si>
+    <t>SD &amp; LD overlapping</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>tomcat</t>
+  </si>
+  <si>
+    <t>hibernate</t>
+  </si>
+  <si>
+    <t>Percentage of LD that are also SD</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>TOMCAT</t>
+  </si>
+  <si>
+    <t>HIBERNATE</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Ratio between SD/LD</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -226,12 +268,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -245,8 +367,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -280,45 +418,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.40671522309711289"/>
-          <c:y val="7.407407407407407E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -431,7 +531,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CEE0-4BFC-B1A3-5E45D30783F2}"/>
+              <c16:uniqueId val="{00000000-CEC5-4DEB-868B-E23C043DA518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -542,7 +642,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CEE0-4BFC-B1A3-5E45D30783F2}"/>
+              <c16:uniqueId val="{00000001-CEC5-4DEB-868B-E23C043DA518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -653,7 +753,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CEE0-4BFC-B1A3-5E45D30783F2}"/>
+              <c16:uniqueId val="{00000002-CEC5-4DEB-868B-E23C043DA518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -764,7 +864,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CEE0-4BFC-B1A3-5E45D30783F2}"/>
+              <c16:uniqueId val="{00000003-CEC5-4DEB-868B-E23C043DA518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -875,7 +975,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CEE0-4BFC-B1A3-5E45D30783F2}"/>
+              <c16:uniqueId val="{00000004-CEC5-4DEB-868B-E23C043DA518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -888,11 +988,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="433691912"/>
-        <c:axId val="433684368"/>
+        <c:axId val="537192800"/>
+        <c:axId val="537193128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433691912"/>
+        <c:axId val="537192800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,7 +1035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433684368"/>
+        <c:crossAx val="537193128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -943,7 +1043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433684368"/>
+        <c:axId val="537193128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +1094,3892 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433691912"/>
+        <c:crossAx val="537192800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryOnly!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U2_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.67153980613379705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65623179193812797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64452566343556195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69744160177975201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75443614598230402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77578261560463502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78563483235340303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C49E-4973-8B68-1F9A531C9C63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryOnly!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.68547062874092701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64314847184702195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.641983155887493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69744160177975201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75443614598230402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77578261560463502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78563483235340303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C49E-4973-8B68-1F9A531C9C63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryOnly!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.68547062874092701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64314847184702195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64436675671380705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69744160177975201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75443614598230402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77578261560463502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78563483235340303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C49E-4973-8B68-1F9A531C9C63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryOnly!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.69383971608665396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.636156576089832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63594470046082796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69744160177975201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75443614598230402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77578261560463502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78563483235340303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C49E-4973-8B68-1F9A531C9C63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryOnly!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.65379522220456399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61057259388738505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63594470046082796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69744160177975201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75443614598230402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77578261560463502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78563483235340303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79898299698076602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C49E-4973-8B68-1F9A531C9C63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="436089256"/>
+        <c:axId val="436088600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="436089256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436088600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="436088600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436089256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryOnly!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U2_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$28:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.65694641246943497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56371570269225402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60058933402035697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61918716990854805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62224655416721097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64984542058483896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65319464124695503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19AB-4989-891E-19804789761F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryOnly!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$29:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.64363003993304202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56371570269225402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60058933402035697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61918716990854805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62224655416721097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64984542058483896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65319464124695503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-19AB-4989-891E-19804789761F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryOnly!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$30:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.64374275408993997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56371570269225402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60058933402035697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61918716990854805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62224655416721097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64984542058483896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65319464124695503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-19AB-4989-891E-19804789761F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryOnly!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$31:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.64891150328484004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56371570269225402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60058933402035697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61918716990854805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62224655416721097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64984542058483896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65319464124695503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-19AB-4989-891E-19804789761F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryOnly!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryOnly!$B$32:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.64416140667270505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56371570269225402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60058933402035697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61918716990854805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62224655416721097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64984542058483896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65319464124695503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65396753832282795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-19AB-4989-891E-19804789761F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="537211824"/>
+        <c:axId val="537210840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="537211824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537210840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="537210840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537211824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U2_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.954060930052816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95681437588561202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95757117093907096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95789321138735095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95790931340976504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95824745588045901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95827965992528696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95829576194770105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95829576194770105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95829576194770105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D700-4CB9-BCC4-BB79DF496CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.92924771351282298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.928764652840398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93341813731805001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93873180471467599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93894113100605803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94625144918202198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94663789771995799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94665399974237197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94665399974237197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94665399974237197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D700-4CB9-BCC4-BB79DF496CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.94209712739920204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94655738760788499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.948054875692388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94895658894757395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94906930310447202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95016424062862503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95042187298724901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95042187298724901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95042187298724901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95042187298724901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D700-4CB9-BCC4-BB79DF496CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.93916655931985504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94217763751127503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94340139121473998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94394885997681699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94398106402164506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94454463480613504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94460904289579095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94460904289579095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94460904289579095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94460904289579095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D700-4CB9-BCC4-BB79DF496CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.92423998454206202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93304779080252798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93810382584052798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94096998583022295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94106659796470704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94430310446992305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94470565503027404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94470565503027404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94470565503027404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94470565503027404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D700-4CB9-BCC4-BB79DF496CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="431723088"/>
+        <c:axId val="431719808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="431723088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431719808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="431719808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431723088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U2_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.92392996108949399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92548638132295702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92626459143968798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92684824902723695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92723735408560304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92723735408560304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92937743190661404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.928015564202334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.928015564202334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.928015564202334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EACA-43DF-9EE1-C9738ADA0E7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.91381322957198396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85350194552529202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85116731517509703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86556420233463005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87568093385213996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88151750972762599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88696498054474704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85428015564202298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.851750972762646</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.851750972762646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EACA-43DF-9EE1-C9738ADA0E7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.90972762645914396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92996108949416301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93287937743190597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93346303501945505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93463035019455198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93365758754863803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93891050583657498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93307392996108895</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93346303501945505</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93346303501945505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EACA-43DF-9EE1-C9738ADA0E7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.92431906614785997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92840466926069998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93112840466925995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93171206225680903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93307392996108895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93443579766536899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93560311284046604</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93385214007782102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93404669260700302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93404669260700302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EACA-43DF-9EE1-C9738ADA0E7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.84046692607003803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88618677042801497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90447470817120601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90914396887159499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91459143968871504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92256809338521395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93190661478599202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93540856031128405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93599221789883202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93599221789883202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EACA-43DF-9EE1-C9738ADA0E7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="436088272"/>
+        <c:axId val="436093192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="436088272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436093192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="436093192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436088272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U2_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$24:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.90968801313627901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91678584670797303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92250648869112895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92361883574340897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92372477355791205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92367180465066001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92361883574340897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92367180465066001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92367180465066001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92367180465066001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9321-4315-A7EF-E0829EBBEA59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.81084803220508905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79961862386778304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81497960697070104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83367763123046101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84729064039408097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85211081095396302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85348800254250001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85767254621536404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85767254621536404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85767254621536404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9321-4315-A7EF-E0829EBBEA59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$26:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.90963504422902897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92134117273159699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.930716669315102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93278245669790805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93278245669790805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93235870543989696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93251761216165097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93246464325440004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93246464325440004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93246464325440004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9321-4315-A7EF-E0829EBBEA59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.91424333915990397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91996398114305999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92351289792890601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92573759203346695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92600243656972403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92616134329147803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.926267281105981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92632025001323304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92632025001323304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92632025001323304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9321-4315-A7EF-E0829EBBEA59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoryAndStructural!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoryAndStructural!$B$28:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.86784257640763995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90550346946341598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92965729117007401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93569574659673804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93744372053603597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93802637851580195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93818528523755595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93829122305205903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93829122305205903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93829122305205903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9321-4315-A7EF-E0829EBBEA59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="537190176"/>
+        <c:axId val="537190832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="537190176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537190832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="537190832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537190176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1121,6 +5106,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1637,27 +5822,2607 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F429235F-DC5A-4BD1-9A4C-EAFE29916FAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C04CE38-28AF-491D-A56F-68DA997A4069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,6 +8435,191 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5412DF-18C3-405B-8F85-F7A7177FE7A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0CC30A-799B-41EC-9D3E-D98D6174A362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564C9EB9-464D-4732-BB27-B0B5DC010D6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC5F975-269F-4D23-AAF8-153AC0DA30D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4F3B30-0173-4DCF-BFDD-E40548B867B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1943,8 +8893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D99981-2638-4ADB-A057-470F684A2A24}">
   <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:L32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2421,9 +9371,6 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
       <c r="B27">
         <v>10</v>
       </c>
@@ -2659,24 +9606,24 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3374,15 +10321,535 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10489EE-4A82-49AE-BB73-7CF723A69951}">
+  <dimension ref="D1:AS5"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AJ3" sqref="AJ3:AS5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="4:45" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="4:45" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="21"/>
+    </row>
+    <row r="3" spans="4:45" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>2118</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1611</v>
+      </c>
+      <c r="G3" s="12">
+        <v>645</v>
+      </c>
+      <c r="H3" s="12">
+        <v>426</v>
+      </c>
+      <c r="I3" s="12">
+        <v>378</v>
+      </c>
+      <c r="J3" s="12">
+        <v>343</v>
+      </c>
+      <c r="K3" s="12">
+        <v>198</v>
+      </c>
+      <c r="L3" s="12">
+        <v>164</v>
+      </c>
+      <c r="M3" s="12">
+        <v>78</v>
+      </c>
+      <c r="N3" s="12">
+        <v>51</v>
+      </c>
+      <c r="O3" s="13">
+        <v>51</v>
+      </c>
+      <c r="P3" s="11">
+        <v>406</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>222</v>
+      </c>
+      <c r="R3" s="12">
+        <v>155</v>
+      </c>
+      <c r="S3" s="12">
+        <v>131</v>
+      </c>
+      <c r="T3" s="12">
+        <v>115</v>
+      </c>
+      <c r="U3" s="12">
+        <v>66</v>
+      </c>
+      <c r="V3" s="12">
+        <v>47</v>
+      </c>
+      <c r="W3" s="12">
+        <v>26</v>
+      </c>
+      <c r="X3" s="12">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="11">
+        <f>P3*100/F3</f>
+        <v>25.201738050900062</v>
+      </c>
+      <c r="AA3" s="12">
+        <f t="shared" ref="AA3:AI5" si="0">Q3*100/G3</f>
+        <v>34.418604651162788</v>
+      </c>
+      <c r="AB3" s="12">
+        <f t="shared" si="0"/>
+        <v>36.3849765258216</v>
+      </c>
+      <c r="AC3" s="12">
+        <f t="shared" si="0"/>
+        <v>34.656084656084658</v>
+      </c>
+      <c r="AD3" s="12">
+        <f t="shared" si="0"/>
+        <v>33.527696793002917</v>
+      </c>
+      <c r="AE3" s="12">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="AF3" s="12">
+        <f t="shared" si="0"/>
+        <v>28.658536585365855</v>
+      </c>
+      <c r="AG3" s="12">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="AH3" s="12">
+        <f t="shared" si="0"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="AI3" s="13">
+        <f t="shared" si="0"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="AJ3" s="11">
+        <f>E3/F3</f>
+        <v>1.3147113594040969</v>
+      </c>
+      <c r="AK3" s="12">
+        <f>E3/G3</f>
+        <v>3.2837209302325583</v>
+      </c>
+      <c r="AL3" s="12">
+        <f>E3/H3</f>
+        <v>4.971830985915493</v>
+      </c>
+      <c r="AM3" s="12">
+        <f>E3/I3</f>
+        <v>5.6031746031746028</v>
+      </c>
+      <c r="AN3" s="12">
+        <f>E3/J3</f>
+        <v>6.1749271137026236</v>
+      </c>
+      <c r="AO3" s="12">
+        <f>E3/K3</f>
+        <v>10.696969696969697</v>
+      </c>
+      <c r="AP3" s="12">
+        <f>E3/L3</f>
+        <v>12.914634146341463</v>
+      </c>
+      <c r="AQ3" s="12">
+        <f>E3/M3</f>
+        <v>27.153846153846153</v>
+      </c>
+      <c r="AR3" s="12">
+        <f>E3/N3</f>
+        <v>41.529411764705884</v>
+      </c>
+      <c r="AS3" s="13">
+        <f>E3/O3</f>
+        <v>41.529411764705884</v>
+      </c>
+    </row>
+    <row r="4" spans="4:45" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>1617</v>
+      </c>
+      <c r="F4" s="11">
+        <v>13451</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1752</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1232</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1056</v>
+      </c>
+      <c r="J4" s="12">
+        <v>999</v>
+      </c>
+      <c r="K4" s="12">
+        <v>509</v>
+      </c>
+      <c r="L4" s="12">
+        <v>228</v>
+      </c>
+      <c r="M4" s="12">
+        <v>123</v>
+      </c>
+      <c r="N4" s="12">
+        <v>24</v>
+      </c>
+      <c r="O4" s="13">
+        <v>13</v>
+      </c>
+      <c r="P4" s="11">
+        <v>546</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>387</v>
+      </c>
+      <c r="R4" s="12">
+        <v>308</v>
+      </c>
+      <c r="S4" s="12">
+        <v>272</v>
+      </c>
+      <c r="T4" s="12">
+        <v>259</v>
+      </c>
+      <c r="U4" s="12">
+        <v>191</v>
+      </c>
+      <c r="V4" s="12">
+        <v>108</v>
+      </c>
+      <c r="W4" s="12">
+        <v>68</v>
+      </c>
+      <c r="X4" s="12">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="11">
+        <f>P4*100/F4</f>
+        <v>4.059177756300647</v>
+      </c>
+      <c r="AA4" s="12">
+        <f t="shared" si="0"/>
+        <v>22.089041095890412</v>
+      </c>
+      <c r="AB4" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AC4" s="12">
+        <f t="shared" si="0"/>
+        <v>25.757575757575758</v>
+      </c>
+      <c r="AD4" s="12">
+        <f t="shared" si="0"/>
+        <v>25.925925925925927</v>
+      </c>
+      <c r="AE4" s="12">
+        <f t="shared" si="0"/>
+        <v>37.524557956777997</v>
+      </c>
+      <c r="AF4" s="12">
+        <f t="shared" si="0"/>
+        <v>47.368421052631582</v>
+      </c>
+      <c r="AG4" s="12">
+        <f t="shared" si="0"/>
+        <v>55.284552845528452</v>
+      </c>
+      <c r="AH4" s="12">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="AI4" s="13">
+        <f t="shared" si="0"/>
+        <v>76.92307692307692</v>
+      </c>
+      <c r="AJ4" s="11">
+        <f>E4/F4</f>
+        <v>0.12021411047505762</v>
+      </c>
+      <c r="AK4" s="12">
+        <f>E4/G4</f>
+        <v>0.92294520547945202</v>
+      </c>
+      <c r="AL4" s="12">
+        <f>E4/H4</f>
+        <v>1.3125</v>
+      </c>
+      <c r="AM4" s="12">
+        <f>E4/I4</f>
+        <v>1.53125</v>
+      </c>
+      <c r="AN4" s="12">
+        <f>E4/J4</f>
+        <v>1.6186186186186187</v>
+      </c>
+      <c r="AO4" s="12">
+        <f>E4/K4</f>
+        <v>3.1768172888015718</v>
+      </c>
+      <c r="AP4" s="12">
+        <f>E4/L4</f>
+        <v>7.0921052631578947</v>
+      </c>
+      <c r="AQ4" s="12">
+        <f>E4/M4</f>
+        <v>13.146341463414634</v>
+      </c>
+      <c r="AR4" s="12">
+        <f>E4/N4</f>
+        <v>67.375</v>
+      </c>
+      <c r="AS4" s="13">
+        <f>E4/O4</f>
+        <v>124.38461538461539</v>
+      </c>
+    </row>
+    <row r="5" spans="4:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>20777</v>
+      </c>
+      <c r="F5" s="14">
+        <v>20027</v>
+      </c>
+      <c r="G5" s="15">
+        <v>3251</v>
+      </c>
+      <c r="H5" s="15">
+        <v>2070</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1390</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1097</v>
+      </c>
+      <c r="K5" s="15">
+        <v>383</v>
+      </c>
+      <c r="L5" s="15">
+        <v>249</v>
+      </c>
+      <c r="M5" s="15">
+        <v>186</v>
+      </c>
+      <c r="N5" s="15">
+        <v>186</v>
+      </c>
+      <c r="O5" s="16">
+        <v>186</v>
+      </c>
+      <c r="P5" s="14">
+        <v>1311</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>865</v>
+      </c>
+      <c r="R5" s="15">
+        <v>612</v>
+      </c>
+      <c r="S5" s="15">
+        <v>450</v>
+      </c>
+      <c r="T5" s="15">
+        <v>357</v>
+      </c>
+      <c r="U5" s="15">
+        <v>173</v>
+      </c>
+      <c r="V5" s="15">
+        <v>112</v>
+      </c>
+      <c r="W5" s="15">
+        <v>79</v>
+      </c>
+      <c r="X5" s="15">
+        <v>79</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>79</v>
+      </c>
+      <c r="Z5" s="14">
+        <f>P5*100/F5</f>
+        <v>6.5461626803814852</v>
+      </c>
+      <c r="AA5" s="15">
+        <f t="shared" si="0"/>
+        <v>26.607197785296833</v>
+      </c>
+      <c r="AB5" s="15">
+        <f t="shared" si="0"/>
+        <v>29.565217391304348</v>
+      </c>
+      <c r="AC5" s="15">
+        <f t="shared" si="0"/>
+        <v>32.374100719424462</v>
+      </c>
+      <c r="AD5" s="15">
+        <f t="shared" si="0"/>
+        <v>32.5432999088423</v>
+      </c>
+      <c r="AE5" s="15">
+        <f t="shared" si="0"/>
+        <v>45.16971279373368</v>
+      </c>
+      <c r="AF5" s="15">
+        <f t="shared" si="0"/>
+        <v>44.979919678714857</v>
+      </c>
+      <c r="AG5" s="15">
+        <f t="shared" si="0"/>
+        <v>42.473118279569896</v>
+      </c>
+      <c r="AH5" s="15">
+        <f t="shared" si="0"/>
+        <v>42.473118279569896</v>
+      </c>
+      <c r="AI5" s="16">
+        <f t="shared" si="0"/>
+        <v>42.473118279569896</v>
+      </c>
+      <c r="AJ5" s="14">
+        <f>E5/F5</f>
+        <v>1.0374494432516104</v>
+      </c>
+      <c r="AK5" s="15">
+        <f>E5/G5</f>
+        <v>6.3909566287296213</v>
+      </c>
+      <c r="AL5" s="15">
+        <f>E5/H5</f>
+        <v>10.03719806763285</v>
+      </c>
+      <c r="AM5" s="15">
+        <f>E5/I5</f>
+        <v>14.947482014388489</v>
+      </c>
+      <c r="AN5" s="15">
+        <f>E5/J5</f>
+        <v>18.939835916134914</v>
+      </c>
+      <c r="AO5" s="15">
+        <f>E5/K5</f>
+        <v>54.248041775456919</v>
+      </c>
+      <c r="AP5" s="15">
+        <f>E5/L5</f>
+        <v>83.441767068273094</v>
+      </c>
+      <c r="AQ5" s="15">
+        <f>E5/M5</f>
+        <v>111.70430107526882</v>
+      </c>
+      <c r="AR5" s="15">
+        <f>E5/N5</f>
+        <v>111.70430107526882</v>
+      </c>
+      <c r="AS5" s="16">
+        <f>E5/O5</f>
+        <v>111.70430107526882</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="P2:Y2"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="Z2:AI2"/>
+    <mergeCell ref="AJ2:AS2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AFC225-C59F-4842-87D7-59ABDEB0AF5D}">
-  <dimension ref="A4:AC44"/>
+  <dimension ref="A4:AF43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X9" sqref="A5:X9"/>
+    <sheetView topLeftCell="G13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4369,7 +11836,7 @@
       <c r="K32"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -4382,8 +11849,11 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" s="7"/>
+      <c r="O33" s="5">
+        <v>1.3147113594040969</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -4396,8 +11866,11 @@
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34" s="7"/>
+      <c r="O34" s="5">
+        <v>0.12021411047505762</v>
+      </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -4410,8 +11883,11 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" s="7"/>
+      <c r="O35" s="5">
+        <v>1.0374494432516104</v>
+      </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -4425,7 +11901,7 @@
       <c r="K36"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -4439,7 +11915,7 @@
       <c r="K37"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -4453,7 +11929,7 @@
       <c r="K38"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -4467,7 +11943,7 @@
       <c r="K39"/>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -4478,10 +11954,71 @@
       <c r="H40"/>
       <c r="I40" s="8"/>
       <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40" s="7"/>
+      <c r="L40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="17">
+        <v>10</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O40" s="17">
+        <v>20</v>
+      </c>
+      <c r="P40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="17">
+        <v>30</v>
+      </c>
+      <c r="R40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S40" s="17">
+        <v>40</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="U40" s="17">
+        <v>50</v>
+      </c>
+      <c r="V40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="W40" s="17">
+        <v>60</v>
+      </c>
+      <c r="X40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y40" s="17">
+        <v>70</v>
+      </c>
+      <c r="Z40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA40" s="17">
+        <v>80</v>
+      </c>
+      <c r="AB40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC40" s="17">
+        <v>90</v>
+      </c>
+      <c r="AD40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE40" s="17">
+        <v>100</v>
+      </c>
+      <c r="AF40" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -4492,10 +12029,74 @@
       <c r="H41"/>
       <c r="I41" s="8"/>
       <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41" s="7"/>
+      <c r="K41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1.3147113594040969</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O41" s="5">
+        <v>3.2837209302325583</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>4.971830985915493</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" s="5">
+        <v>5.6031746031746028</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U41" s="5">
+        <v>6.1749271137026236</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W41" s="5">
+        <v>10.696969696969697</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>12.914634146341463</v>
+      </c>
+      <c r="Z41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>27.153846153846153</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>41.529411764705884</v>
+      </c>
+      <c r="AD41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE41" s="5">
+        <v>41.529411764705884</v>
+      </c>
+      <c r="AF41" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -4506,10 +12107,74 @@
       <c r="H42"/>
       <c r="I42" s="8"/>
       <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42" s="7"/>
+      <c r="K42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0.12021411047505762</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0.92294520547945202</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>1.3125</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S42" s="5">
+        <v>1.53125</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U42" s="5">
+        <v>1.6186186186186187</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W42" s="5">
+        <v>3.1768172888015718</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>7.0921052631578947</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA42" s="5">
+        <v>13.146341463414634</v>
+      </c>
+      <c r="AB42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC42" s="5">
+        <v>67.375</v>
+      </c>
+      <c r="AD42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE42" s="5">
+        <v>124.38461538461539</v>
+      </c>
+      <c r="AF42" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -4520,11 +12185,72 @@
       <c r="H43"/>
       <c r="I43" s="9"/>
       <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B44"/>
+      <c r="K43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1.0374494432516104</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O43" s="5">
+        <v>6.3909566287296213</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>10.03719806763285</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S43" s="5">
+        <v>14.947482014388489</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U43" s="5">
+        <v>18.939835916134914</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W43" s="5">
+        <v>54.248041775456919</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>83.441767068273094</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>111.70430107526882</v>
+      </c>
+      <c r="AB43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC43" s="5">
+        <v>111.70430107526882</v>
+      </c>
+      <c r="AD43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE43" s="5">
+        <v>111.70430107526882</v>
+      </c>
+      <c r="AF43" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4536,8 +12262,12 @@
     <hyperlink ref="X9" r:id="rId6" xr:uid="{B0924623-3363-4637-8A46-10A7F7ABA466}"/>
     <hyperlink ref="L15" r:id="rId7" xr:uid="{B63B98A5-6BF8-41E2-A30F-6B27F18BCC4E}"/>
     <hyperlink ref="L16:L29" r:id="rId8" display="\\" xr:uid="{3E8DB295-78AC-4439-AAB7-701B8ED0A1DA}"/>
+    <hyperlink ref="AF40" r:id="rId9" xr:uid="{95BA8D20-4B22-4A4E-B3CC-711AAE392355}"/>
+    <hyperlink ref="AF41" r:id="rId10" xr:uid="{82062148-365D-4EED-A19D-DA04FD4655F4}"/>
+    <hyperlink ref="AF42" r:id="rId11" xr:uid="{7E905B50-6E89-441B-8D07-3EE3817BF5A9}"/>
+    <hyperlink ref="AF43" r:id="rId12" xr:uid="{87F0297C-FA3E-4D5B-93BD-C97D7B273E9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/results/results_16.04.2021.xlsx
+++ b/results/results_16.04.2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F27C6-36DC-4B6B-B3A1-DB9C79721A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6971E6FC-A0A4-42AD-8EC6-C4B1561B63D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="47">
   <si>
     <t>ant.jar</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Ratio between SD/LD</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>TOTAL AVG</t>
   </si>
 </sst>
 </file>
@@ -998,6 +1004,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="850" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="850" baseline="0"/>
+                  <a:t>Connection strength threshold</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="850" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1063,6 +1124,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="850" baseline="0"/>
+                  <a:t>AUC score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1775,6 +1891,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="850" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Connection strength threshold</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="850" baseline="0">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1840,6 +2019,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="850" baseline="0"/>
+                  <a:t>AUC Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2552,6 +2786,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="850" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Connection strength threshold</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="850" baseline="0">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2617,6 +2914,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="850"/>
+                  <a:t>AUC Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3329,6 +3681,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="850"/>
+                  <a:t>Connection strength threshold</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3394,6 +3801,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="850"/>
+                  <a:t>AUC Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4106,6 +4568,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="850"/>
+                  <a:t>Connection strength threshold</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4171,6 +4688,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="850" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>AUC Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="850">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4883,6 +5463,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="850"/>
+                  <a:t>Connection strength threshold</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4948,6 +5583,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="850"/>
+                  <a:t>AUC Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8408,8 +9098,8 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
@@ -8444,14 +9134,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8891,10 +9581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D99981-2638-4ADB-A057-470F684A2A24}">
-  <dimension ref="A2:L32"/>
+  <dimension ref="A2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9593,6 +10283,60 @@
       </c>
       <c r="L32" s="2">
         <v>0.94629975499999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <f>SUM(B4:B8,B16:B20,B28:B32)/15</f>
+        <v>0.68210624809797804</v>
+      </c>
+      <c r="C35">
+        <f>SUM(C4:C8,C16:C20,C28:C32)/15</f>
+        <v>0.60328507385244068</v>
+      </c>
+      <c r="D35">
+        <f>SUM(D4:D8,D16:D20,D28:D32)/15</f>
+        <v>0.64314342238508382</v>
+      </c>
+      <c r="E35">
+        <f>SUM(E4:E8,E16:E20,E28:E32)/15</f>
+        <v>0.6696414971775525</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="C35:K35" si="0">SUM(F4:F8,F16:F20,F28:F32)/15</f>
+        <v>0.70234429823401423</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0.74930791867794388</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0.76232058977340056</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0.77711840152143119</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0.77640504224776075</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>0.77640504224776075</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <f>SUM(F35:I35)/4</f>
+        <v>0.74777280205169738</v>
       </c>
     </row>
   </sheetData>
@@ -9603,13 +10347,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CE7DF2-3C3A-47B5-ADEA-8C42B7633BB2}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
@@ -10314,6 +11061,60 @@
       </c>
       <c r="L28" s="2">
         <v>0.93903278800000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <f>SUM(B5:B9,B15:B19,B24:B28)/15</f>
+        <v>0.90755507528688117</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:K31" si="0">SUM(C5:C9,C15:C19,C24:C28)/15</f>
+        <v>0.91294105297284367</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.91918911679785631</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.92324961537788997</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F5:F9,F15:F19,F24:F28)/15</f>
+        <v>0.92556169633629382</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0.92768375134876102</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.92943291941760331</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0.92718247666557685</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0.92709168548529164</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>0.92709168548529164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <f>SUM(E31:H31)/4</f>
+        <v>0.926481995620137</v>
       </c>
     </row>
   </sheetData>
